--- a/Documents/MonsterJSON변환용.xlsx
+++ b/Documents/MonsterJSON변환용.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\dungeontycoon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1CB62E-B569-4DFA-A657-B39939D236EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D4339B-C666-4F93-9A91-45D0FD1850B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{553C60AD-F4A0-41FD-9336-C7D7D55ED735}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{553C60AD-F4A0-41FD-9336-C7D7D55ED735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>킹 슬라임</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>GateKeeper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -137,10 +141,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000"/>
-    <numFmt numFmtId="177" formatCode="0&quot;칸&quot;"/>
-    <numFmt numFmtId="178" formatCode="0\ &quot;G&quot;"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="184" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -274,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,40 +289,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,10 +649,17 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="8.796875" style="13"/>
+    <col min="8" max="8" width="8.796875" style="7"/>
+    <col min="9" max="9" width="8.796875" style="16"/>
+    <col min="10" max="11" width="8.796875" style="13"/>
+    <col min="12" max="14" width="8.796875" style="9"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -659,40 +677,40 @@
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -715,36 +733,39 @@
         <f>B2 + 10</f>
         <v>35</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="12">
         <v>0</v>
       </c>
       <c r="G2">
         <f>ROUND((10+2.5*B2), 0)</f>
         <v>73</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <f>0.5904+0.0032*B2</f>
         <v>0.6704</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="16">
         <f t="shared" ref="I2:I5" si="0">0.05+0.15*(-3+B2)%</f>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="13">
         <v>2</v>
       </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="13">
-        <v>1</v>
-      </c>
-      <c r="N2" s="14">
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9">
         <f>(ROUND(B2*0.9,0)+18) * 5</f>
         <v>205</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -768,36 +789,39 @@
         <f>B3 +10</f>
         <v>55</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="12">
         <v>0</v>
       </c>
       <c r="G3">
         <f xml:space="preserve"> 125</f>
         <v>125</v>
       </c>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H5" si="1">0.5904+0.0032*B3</f>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H4" si="1">0.5904+0.0032*B3</f>
         <v>0.73440000000000005</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="16">
         <f t="shared" si="0"/>
         <v>0.113</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="13">
         <v>2</v>
       </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13">
-        <v>1</v>
-      </c>
-      <c r="N3" s="14">
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
         <f>(ROUND(B3*0.9,0)+18) *5</f>
         <v>295</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
@@ -821,35 +845,38 @@
         <f>B4+ 10</f>
         <v>75</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="12">
         <v>0</v>
       </c>
       <c r="G4">
         <v>188</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <f t="shared" si="1"/>
         <v>0.7984</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="16">
         <f t="shared" si="0"/>
         <v>0.14300000000000002</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="13">
         <v>2</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13">
-        <v>1</v>
-      </c>
-      <c r="N4" s="14">
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
         <f>(ROUND(B4*0.9,0)+18)*5</f>
         <v>385</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -874,36 +901,39 @@
         <f>B5 + 23</f>
         <v>48</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="12">
         <v>0</v>
       </c>
       <c r="G5">
         <f>65</f>
         <v>65</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <f>0.6704+0.0032*B5</f>
         <v>0.75039999999999996</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="16">
         <f t="shared" si="0"/>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="13">
-        <v>1</v>
-      </c>
-      <c r="N5" s="14">
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9">
         <f t="shared" ref="N5" si="2">ROUND(B5*0.9,0)+18</f>
         <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
       </c>
       <c r="Q5" t="s">
         <v>25</v>
@@ -927,36 +957,39 @@
         <f>B6 +21</f>
         <v>66</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="12">
         <v>0</v>
       </c>
       <c r="G6">
         <f xml:space="preserve"> 128</f>
         <v>128</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <f t="shared" ref="H6:H7" si="3">0.5904+0.0032*B6</f>
         <v>0.73440000000000005</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="16">
         <f>0.1+0.15*(-3+B6)%</f>
         <v>0.16300000000000001</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="13">
         <v>2</v>
       </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="13">
-        <v>1</v>
-      </c>
-      <c r="N6" s="14">
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
         <f>(ROUND(B6*0.9,0)+18) *5</f>
         <v>295</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -980,35 +1013,38 @@
         <f>B7+15</f>
         <v>80</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="12">
         <v>0</v>
       </c>
       <c r="G7">
         <v>196</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <f t="shared" si="3"/>
         <v>0.7984</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="16">
         <f t="shared" ref="I7" si="4">0.05+0.15*(-3+B7)%</f>
         <v>0.14300000000000002</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="13">
         <v>2</v>
       </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="13">
-        <v>1</v>
-      </c>
-      <c r="N7" s="14">
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
         <f>(ROUND(B7*0.9,0)+18)*5</f>
         <v>385</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
@@ -1017,5 +1053,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>